--- a/views/financeiro/relatorios/resumo_campanha_75.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_75.xlsx
@@ -649,19 +649,19 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>20630.0</v>
+        <v>17830.0</v>
       </c>
       <c r="D8" s="6">
         <v>11190.0</v>
       </c>
       <c r="E8" s="6">
-        <v>9440.0</v>
+        <v>6640.0</v>
       </c>
       <c r="F8" s="7">
-        <v>0.45758603974794</v>
+        <v>0.37240605720695</v>
       </c>
       <c r="G8" s="6">
-        <v>188.8</v>
+        <v>132.8</v>
       </c>
       <c r="H8" s="8">
         <v>0</v>
@@ -675,19 +675,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="6">
+        <v>3750.0</v>
+      </c>
+      <c r="D9" s="6">
         <v>3000.0</v>
       </c>
-      <c r="D9" s="6">
-        <v>2300.0</v>
-      </c>
       <c r="E9" s="6">
-        <v>700.0</v>
+        <v>750.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.23333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="6">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H9" s="8">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>3130.0</v>
       </c>
       <c r="D10" s="6">
-        <v>2000.0</v>
+        <v>3130.0</v>
       </c>
       <c r="E10" s="6">
-        <v>1130.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="7">
-        <v>0.36102236421725</v>
+        <v>0.0</v>
       </c>
       <c r="G10" s="6">
-        <v>22.6</v>
+        <v>0</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>14130.0</v>
       </c>
       <c r="D11" s="6">
-        <v>6070.0</v>
+        <v>11870.0</v>
       </c>
       <c r="E11" s="6">
-        <v>8060.0</v>
+        <v>2260.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.57041755130927</v>
+        <v>0.15994338287332</v>
       </c>
       <c r="G11" s="6">
-        <v>161.2</v>
+        <v>45.2</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>20</v>
       </c>
       <c r="C12" s="6">
-        <v>4350.0</v>
+        <v>6400.0</v>
       </c>
       <c r="D12" s="6">
-        <v>950.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E12" s="6">
-        <v>3400.0</v>
+        <v>4550.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.7816091954023</v>
+        <v>0.7109375</v>
       </c>
       <c r="G12" s="6">
-        <v>68.0</v>
+        <v>91.0</v>
       </c>
       <c r="H12" s="8">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>45240.0</v>
       </c>
       <c r="D13" s="9">
-        <v>22510.0</v>
+        <v>31040.0</v>
       </c>
       <c r="E13" s="9">
-        <v>22730.0</v>
+        <v>14200.0</v>
       </c>
       <c r="F13" s="10">
-        <v>0.50243147656941</v>
+        <v>0.31388152077807</v>
       </c>
       <c r="G13" s="9">
-        <v>454.6</v>
+        <v>284.0</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>2580.0</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
+        <v>1390.0</v>
       </c>
       <c r="E18" s="6">
-        <v>2580.0</v>
+        <v>1190.0</v>
       </c>
       <c r="F18" s="7">
-        <v>1.0</v>
+        <v>0.46124031007752</v>
       </c>
       <c r="G18" s="6">
-        <v>51.6</v>
+        <v>23.8</v>
       </c>
       <c r="H18" s="8">
         <v>0</v>
@@ -891,16 +891,16 @@
         <v>13620.0</v>
       </c>
       <c r="D19" s="6">
-        <v>8870.0</v>
+        <v>10870.0</v>
       </c>
       <c r="E19" s="6">
-        <v>4750.0</v>
+        <v>2750.0</v>
       </c>
       <c r="F19" s="7">
-        <v>0.34875183553598</v>
+        <v>0.20190895741557</v>
       </c>
       <c r="G19" s="6">
-        <v>95.0</v>
+        <v>55.0</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
@@ -917,16 +917,16 @@
         <v>27279.0</v>
       </c>
       <c r="D20" s="9">
-        <v>17560.0</v>
+        <v>20950.0</v>
       </c>
       <c r="E20" s="9">
-        <v>9719.0</v>
+        <v>6329.0</v>
       </c>
       <c r="F20" s="10">
-        <v>0.35628138861395</v>
+        <v>0.23200997103999</v>
       </c>
       <c r="G20" s="9">
-        <v>194.38</v>
+        <v>126.58</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -971,19 +971,19 @@
         <v>27</v>
       </c>
       <c r="C23" s="6">
-        <v>4854.9</v>
+        <v>8856.4</v>
       </c>
       <c r="D23" s="6">
-        <v>3880.0</v>
+        <v>5661.5</v>
       </c>
       <c r="E23" s="6">
-        <v>974.9</v>
+        <v>3194.9</v>
       </c>
       <c r="F23" s="7">
-        <v>0.20080743166698</v>
+        <v>0.36074477214218</v>
       </c>
       <c r="G23" s="6">
-        <v>19.498</v>
+        <v>63.898</v>
       </c>
       <c r="H23" s="8">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>21</v>
       </c>
       <c r="C24" s="9">
-        <v>4854.9</v>
+        <v>8856.4</v>
       </c>
       <c r="D24" s="9">
-        <v>3880.0</v>
+        <v>5661.5</v>
       </c>
       <c r="E24" s="9">
-        <v>974.9</v>
+        <v>3194.9</v>
       </c>
       <c r="F24" s="10">
-        <v>0.20080743166698</v>
+        <v>0.36074477214218</v>
       </c>
       <c r="G24" s="9">
-        <v>19.498</v>
+        <v>63.898</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
@@ -1057,16 +1057,16 @@
         <v>45240.0</v>
       </c>
       <c r="D27" s="6">
-        <v>22510.0</v>
+        <v>31040.0</v>
       </c>
       <c r="E27" s="6">
-        <v>22730.0</v>
+        <v>14200.0</v>
       </c>
       <c r="F27" s="7">
-        <v>0.50243147656941</v>
+        <v>0.31388152077807</v>
       </c>
       <c r="G27" s="6">
-        <v>454.6</v>
+        <v>284.0</v>
       </c>
       <c r="H27" s="8">
         <v>0</v>
@@ -1083,16 +1083,16 @@
         <v>27279.0</v>
       </c>
       <c r="D28" s="6">
-        <v>17560.0</v>
+        <v>20950.0</v>
       </c>
       <c r="E28" s="6">
-        <v>9719.0</v>
+        <v>6329.0</v>
       </c>
       <c r="F28" s="7">
-        <v>0.35628138861395</v>
+        <v>0.23200997103999</v>
       </c>
       <c r="G28" s="6">
-        <v>194.38</v>
+        <v>126.58</v>
       </c>
       <c r="H28" s="8">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>32</v>
       </c>
       <c r="C29" s="6">
-        <v>4854.9</v>
+        <v>8856.4</v>
       </c>
       <c r="D29" s="6">
-        <v>3880.0</v>
+        <v>5661.5</v>
       </c>
       <c r="E29" s="6">
-        <v>974.9</v>
+        <v>3194.9</v>
       </c>
       <c r="F29" s="7">
-        <v>0.20080743166698</v>
+        <v>0.36074477214218</v>
       </c>
       <c r="G29" s="6">
-        <v>19.498</v>
+        <v>63.898</v>
       </c>
       <c r="H29" s="8">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>21</v>
       </c>
       <c r="C30" s="9">
-        <v>77373.9</v>
+        <v>81375.4</v>
       </c>
       <c r="D30" s="9">
-        <v>43950.0</v>
+        <v>57651.5</v>
       </c>
       <c r="E30" s="9">
-        <v>33423.9</v>
+        <v>23723.9</v>
       </c>
       <c r="F30" s="10">
-        <v>0.43197900067077</v>
+        <v>0.2915365085763</v>
       </c>
       <c r="G30" s="9">
-        <v>668.478</v>
+        <v>474.478</v>
       </c>
       <c r="H30" s="9">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>16</v>
       </c>
       <c r="D34" s="12">
-        <v>20630.0</v>
+        <v>17830.0</v>
       </c>
       <c r="E34" s="13">
         <v>11190.0</v>
       </c>
       <c r="F34" s="12">
-        <v>9440.0</v>
+        <v>6640.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1200,13 +1200,13 @@
         <v>17</v>
       </c>
       <c r="D35" s="12">
+        <v>3750.0</v>
+      </c>
+      <c r="E35" s="13">
         <v>3000.0</v>
       </c>
-      <c r="E35" s="13">
-        <v>2300.0</v>
-      </c>
       <c r="F35" s="12">
-        <v>700.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1220,10 +1220,10 @@
         <v>3130.0</v>
       </c>
       <c r="E36" s="13">
-        <v>2000.0</v>
+        <v>3130.0</v>
       </c>
       <c r="F36" s="12">
-        <v>1130.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1237,10 +1237,10 @@
         <v>14130.0</v>
       </c>
       <c r="E37" s="13">
-        <v>6070.0</v>
+        <v>11870.0</v>
       </c>
       <c r="F37" s="12">
-        <v>8060.0</v>
+        <v>2260.0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1251,13 +1251,13 @@
         <v>20</v>
       </c>
       <c r="D38" s="12">
-        <v>4350.0</v>
+        <v>6400.0</v>
       </c>
       <c r="E38" s="13">
-        <v>950.0</v>
+        <v>1850.0</v>
       </c>
       <c r="F38" s="12">
-        <v>3400.0</v>
+        <v>4550.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1295,10 +1295,10 @@
         <v>2580.0</v>
       </c>
       <c r="E41" s="13">
-        <v>0</v>
+        <v>1390.0</v>
       </c>
       <c r="F41" s="12">
-        <v>2580.0</v>
+        <v>1190.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1312,10 +1312,10 @@
         <v>13620.0</v>
       </c>
       <c r="E42" s="13">
-        <v>8870.0</v>
+        <v>10870.0</v>
       </c>
       <c r="F42" s="12">
-        <v>4750.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1333,13 +1333,13 @@
         <v>27</v>
       </c>
       <c r="D44" s="12">
-        <v>4854.9</v>
+        <v>8856.4</v>
       </c>
       <c r="E44" s="13">
-        <v>3880.0</v>
+        <v>5661.5</v>
       </c>
       <c r="F44" s="12">
-        <v>974.9</v>
+        <v>3194.9</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1349,15 +1349,15 @@
       </c>
       <c r="D45" s="9">
         <f>sum(D34:D44)</f>
-        <v>77373.9</v>
+        <v>81375.4</v>
       </c>
       <c r="E45" s="9">
         <f>sum(E34:E44)</f>
-        <v>43950</v>
+        <v>57651.5</v>
       </c>
       <c r="F45" s="9">
         <f>sum(F34:F44)</f>
-        <v>33423.9</v>
+        <v>23723.9</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E46" s="15">
         <f>(E45/D45)</f>
-        <v>0.56802099932923</v>
+        <v>0.7084634914237</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E47" s="15">
         <f>(F45/D45)</f>
-        <v>0.43197900067077</v>
+        <v>0.2915365085763</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_75.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_75.xlsx
@@ -664,10 +664,10 @@
         <v>132.8</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>3780.0</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0</v>
+        <v>75.6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -768,10 +768,10 @@
         <v>91.0</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>700.0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,10 +794,10 @@
         <v>284.0</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>4480.0</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -851,10 +851,10 @@
         <v>47.78</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>2389.0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>47.78</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -877,10 +877,10 @@
         <v>23.8</v>
       </c>
       <c r="H18" s="8">
-        <v>0</v>
+        <v>1190.0</v>
       </c>
       <c r="I18" s="8">
-        <v>0.0</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -903,10 +903,10 @@
         <v>55.0</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>500.0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -929,10 +929,10 @@
         <v>126.58</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>4079.0</v>
       </c>
       <c r="I20" s="9">
-        <v>0.0</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -986,10 +986,10 @@
         <v>63.898</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>3194.9</v>
       </c>
       <c r="I23" s="8">
-        <v>0.0</v>
+        <v>63.898</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1012,10 +1012,10 @@
         <v>63.898</v>
       </c>
       <c r="H24" s="9">
-        <v>0</v>
+        <v>3194.9</v>
       </c>
       <c r="I24" s="9">
-        <v>0.0</v>
+        <v>63.898</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,10 +1069,10 @@
         <v>284.0</v>
       </c>
       <c r="H27" s="8">
-        <v>0</v>
+        <v>4480.0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>89.6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1095,10 +1095,10 @@
         <v>126.58</v>
       </c>
       <c r="H28" s="8">
-        <v>0</v>
+        <v>4079.0</v>
       </c>
       <c r="I28" s="8">
-        <v>0.0</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1121,10 +1121,10 @@
         <v>63.898</v>
       </c>
       <c r="H29" s="8">
-        <v>0</v>
+        <v>3194.9</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0</v>
+        <v>63.898</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>474.478</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>11753.9</v>
       </c>
       <c r="I30" s="9">
-        <v>0.0</v>
+        <v>235.078</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1186,10 +1186,10 @@
         <v>17830.0</v>
       </c>
       <c r="E34" s="13">
-        <v>11190.0</v>
+        <v>14970.0</v>
       </c>
       <c r="F34" s="12">
-        <v>6640.0</v>
+        <v>2860.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1254,10 +1254,10 @@
         <v>6400.0</v>
       </c>
       <c r="E38" s="13">
-        <v>1850.0</v>
+        <v>2550.0</v>
       </c>
       <c r="F38" s="12">
-        <v>4550.0</v>
+        <v>3850.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1278,10 +1278,10 @@
         <v>11079.0</v>
       </c>
       <c r="E40" s="13">
-        <v>8690.0</v>
+        <v>11079.0</v>
       </c>
       <c r="F40" s="12">
-        <v>2389.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1295,10 +1295,10 @@
         <v>2580.0</v>
       </c>
       <c r="E41" s="13">
-        <v>1390.0</v>
+        <v>2580.0</v>
       </c>
       <c r="F41" s="12">
-        <v>1190.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1312,10 +1312,10 @@
         <v>13620.0</v>
       </c>
       <c r="E42" s="13">
-        <v>10870.0</v>
+        <v>11370.0</v>
       </c>
       <c r="F42" s="12">
-        <v>2750.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1336,10 +1336,10 @@
         <v>8856.4</v>
       </c>
       <c r="E44" s="13">
-        <v>5661.5</v>
+        <v>8856.4</v>
       </c>
       <c r="F44" s="12">
-        <v>3194.9</v>
+        <v>-4.5474735088646E-13</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="E45" s="9">
         <f>sum(E34:E44)</f>
-        <v>57651.5</v>
+        <v>69405.4</v>
       </c>
       <c r="F45" s="9">
         <f>sum(F34:F44)</f>
-        <v>23723.9</v>
+        <v>11970</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E46" s="15">
         <f>(E45/D45)</f>
-        <v>0.7084634914237</v>
+        <v>0.85290394885924</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E47" s="15">
         <f>(F45/D45)</f>
-        <v>0.2915365085763</v>
+        <v>0.14709605114076</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_75.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_75.xlsx
@@ -690,10 +690,10 @@
         <v>15.0</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>750.0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -768,10 +768,10 @@
         <v>91.0</v>
       </c>
       <c r="H12" s="8">
-        <v>700.0</v>
+        <v>2750.0</v>
       </c>
       <c r="I12" s="8">
-        <v>14.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -794,10 +794,10 @@
         <v>284.0</v>
       </c>
       <c r="H13" s="9">
-        <v>4480.0</v>
+        <v>7280.0</v>
       </c>
       <c r="I13" s="9">
-        <v>89.6</v>
+        <v>145.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -903,10 +903,10 @@
         <v>55.0</v>
       </c>
       <c r="H19" s="8">
-        <v>500.0</v>
+        <v>2750.0</v>
       </c>
       <c r="I19" s="8">
-        <v>10.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -929,10 +929,10 @@
         <v>126.58</v>
       </c>
       <c r="H20" s="9">
-        <v>4079.0</v>
+        <v>6329.0</v>
       </c>
       <c r="I20" s="9">
-        <v>81.58</v>
+        <v>126.58</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1069,10 +1069,10 @@
         <v>284.0</v>
       </c>
       <c r="H27" s="8">
-        <v>4480.0</v>
+        <v>7280.0</v>
       </c>
       <c r="I27" s="8">
-        <v>89.6</v>
+        <v>145.6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1095,10 +1095,10 @@
         <v>126.58</v>
       </c>
       <c r="H28" s="8">
-        <v>4079.0</v>
+        <v>6329.0</v>
       </c>
       <c r="I28" s="8">
-        <v>81.58</v>
+        <v>126.58</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1147,10 +1147,10 @@
         <v>474.478</v>
       </c>
       <c r="H30" s="9">
-        <v>11753.9</v>
+        <v>16803.9</v>
       </c>
       <c r="I30" s="9">
-        <v>235.078</v>
+        <v>336.078</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1203,10 +1203,10 @@
         <v>3750.0</v>
       </c>
       <c r="E35" s="13">
-        <v>3000.0</v>
+        <v>3750.0</v>
       </c>
       <c r="F35" s="12">
-        <v>750.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1254,10 +1254,10 @@
         <v>6400.0</v>
       </c>
       <c r="E38" s="13">
-        <v>2550.0</v>
+        <v>4600.0</v>
       </c>
       <c r="F38" s="12">
-        <v>3850.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1312,10 +1312,10 @@
         <v>13620.0</v>
       </c>
       <c r="E42" s="13">
-        <v>11370.0</v>
+        <v>13620.0</v>
       </c>
       <c r="F42" s="12">
-        <v>2250.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="E45" s="9">
         <f>sum(E34:E44)</f>
-        <v>69405.4</v>
+        <v>74455.4</v>
       </c>
       <c r="F45" s="9">
         <f>sum(F34:F44)</f>
-        <v>11970</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="E46" s="15">
         <f>(E45/D45)</f>
-        <v>0.85290394885924</v>
+        <v>0.9149620155477</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="E47" s="15">
         <f>(F45/D45)</f>
-        <v>0.14709605114076</v>
+        <v>0.085037984452304</v>
       </c>
     </row>
   </sheetData>
